--- a/aichan/547646735838195926_2021-07-15_19-09-02.xlsx
+++ b/aichan/547646735838195926_2021-07-15_19-09-02.xlsx
@@ -892,7 +892,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -13673,7 +13673,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13794,7 +13794,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -16601,7 +16601,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -17909,7 +17909,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -18268,7 +18268,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18339,7 +18339,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18556,7 +18556,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18777,7 +18777,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19049,7 +19049,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19341,7 +19341,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -20451,7 +20451,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -20965,7 +20965,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21486,7 +21486,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21863,7 +21863,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -21942,7 +21942,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -22518,7 +22518,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -23990,7 +23990,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24069,7 +24069,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -24149,7 +24149,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -24224,7 +24224,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -24366,7 +24366,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -24516,7 +24516,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24587,7 +24587,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24872,7 +24872,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -25215,7 +25215,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -25354,7 +25354,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25429,7 +25429,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25800,7 +25800,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26313,7 +26313,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -26525,7 +26525,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -26742,7 +26742,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -27586,7 +27586,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -27890,7 +27890,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -28174,7 +28174,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -29887,7 +29887,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30250,7 +30250,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -31288,7 +31288,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31955,7 +31955,7 @@
         </is>
       </c>
       <c r="I435" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="J435" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -36816,7 +36816,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -38355,7 +38355,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -38722,7 +38722,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -39528,7 +39528,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -42008,7 +42008,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -42994,7 +42994,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -43215,7 +43215,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K589" t="inlineStr">
@@ -44114,7 +44114,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K601" t="inlineStr">
@@ -44260,7 +44260,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K603" t="inlineStr">
@@ -45543,7 +45543,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
@@ -45991,7 +45991,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K627" t="inlineStr">
@@ -48026,7 +48026,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K655" t="inlineStr">
@@ -48728,7 +48728,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K665" t="inlineStr">
@@ -49537,7 +49537,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K676" t="inlineStr">
@@ -50618,7 +50618,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K691" t="inlineStr">
@@ -51061,7 +51061,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K697" t="inlineStr">
@@ -51266,7 +51266,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K700" t="inlineStr">
@@ -52895,7 +52895,7 @@
         </is>
       </c>
       <c r="I722" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J722" t="inlineStr">
         <is>

--- a/aichan/547646735838195926_2021-07-15_19-09-02.xlsx
+++ b/aichan/547646735838195926_2021-07-15_19-09-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:31:19</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44396.48008101852</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>4915885823</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-19 01:11:49</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44396.04987268519</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -669,10 +681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:19:17</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44395.55505787037</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -749,10 +759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:05:36</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44395.46222222222</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -815,10 +823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:51:45</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44394.7859375</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -882,10 +888,8 @@
           <t>4929040670</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:38:09</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44394.60982638889</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -945,10 +949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:15:38</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44394.55252314815</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1016,10 +1018,8 @@
           <t>4915885823</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:02:58</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44394.54372685185</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1091,10 +1091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:50:36</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44394.41013888889</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1168,10 +1166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-17 03:34:37</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44394.14903935185</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1243,10 +1239,8 @@
           <t>4915885823</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-16 23:49:58</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44393.99303240741</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1310,10 +1304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-16 21:26:42</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44393.89354166666</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1381,10 +1373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-16 19:18:42</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44393.80465277778</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1466,10 +1456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:58:02</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44393.79030092592</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1537,10 +1525,8 @@
           <t>4922546189</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-16 17:57:01</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44393.74792824074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1604,10 +1590,8 @@
           <t>4922190381</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-16 17:06:11</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44393.71262731482</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1671,10 +1655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-16 16:23:34</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44393.68303240741</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1738,10 +1720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-16 16:05:02</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44393.67016203704</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1809,10 +1789,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-16 15:57:45</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44393.66510416667</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1880,10 +1858,8 @@
           <t>4921475221</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-16 15:05:47</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44393.6290162037</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1947,10 +1923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:36:58</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44393.60900462963</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2023,10 +1997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:10:31</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44393.59063657407</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2125,10 +2097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:03:24</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44393.58569444445</v>
       </c>
       <c r="I24" t="n">
         <v>5</v>
@@ -2192,10 +2162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-16 13:33:03</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44393.56461805556</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2259,10 +2227,8 @@
           <t>4920812009</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-16 13:14:14</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44393.55155092593</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2322,10 +2288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:53:41</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44393.53728009259</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2397,10 +2361,8 @@
           <t>4920656735</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:51:11</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44393.53554398148</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2468,10 +2430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:51:03</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44393.53545138889</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2542,10 +2502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:38:49</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44393.52695601852</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -2611,10 +2569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:31:34</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44393.5219212963</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
@@ -2680,10 +2636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:23:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44393.51599537037</v>
       </c>
       <c r="I32" t="n">
         <v>7</v>
@@ -2749,10 +2703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:21:06</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44393.51465277778</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
@@ -2825,10 +2777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:20:55</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44393.51452546296</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2905,10 +2855,8 @@
           <t>4920431210</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:20:21</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44393.51413194444</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2972,10 +2920,8 @@
           <t>4915831734</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-16 12:03:44</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44393.50259259259</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3043,10 +2989,8 @@
           <t>4916037435</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-16 11:46:23</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44393.49054398148</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3118,10 +3062,8 @@
           <t>4915831734</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-16 11:45:37</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44393.49001157407</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3193,10 +3135,8 @@
           <t>4916354993</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:46:01</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44393.44862268519</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3264,10 +3204,8 @@
           <t>4918670908</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:36:47</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44393.44221064815</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3335,10 +3273,8 @@
           <t>4918670908</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:36:30</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44393.44201388889</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3406,10 +3342,8 @@
           <t>4919752473</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:30:15</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44393.43767361111</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3473,10 +3407,8 @@
           <t>4919668305</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:16:06</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44393.42784722222</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3552,10 +3484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:14:16</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44393.42657407407</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
@@ -3623,10 +3553,8 @@
           <t>4919629440</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-16 10:08:51</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44393.4228125</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3694,10 +3622,8 @@
           <t>4919574627</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-16 09:57:32</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44393.4149537037</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3774,10 +3700,8 @@
           <t>4915928043</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-16 09:45:24</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44393.40652777778</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3837,10 +3761,8 @@
           <t>4918670908</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-16 09:43:56</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44393.40550925926</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3908,10 +3830,8 @@
           <t>4918499333</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-16 09:41:57</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44393.40413194444</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3975,10 +3895,8 @@
           <t>4917851234</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-16 09:28:51</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44393.39503472222</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4038,10 +3956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-16 08:55:42</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44393.37201388889</v>
       </c>
       <c r="I51" t="n">
         <v>9</v>
@@ -4109,10 +4025,8 @@
           <t>4916354993</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-16 08:55:29</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44393.37186342593</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4188,10 +4102,8 @@
           <t>4919107182</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-16 08:08:27</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44393.33920138889</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4255,10 +4167,8 @@
           <t>4919045352</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-16 07:48:33</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44393.32538194444</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4318,10 +4228,8 @@
           <t>4918670908</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-16 07:24:54</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44393.30895833333</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4395,10 +4303,8 @@
           <t>4916139603</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-16 06:49:00</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44393.28402777778</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4462,10 +4368,8 @@
           <t>4918839680</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-16 06:00:56</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44393.25064814815</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4529,10 +4433,8 @@
           <t>4918812811</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-16 05:20:45</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44393.22274305556</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4608,10 +4510,8 @@
           <t>4918671150</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-16 03:02:02</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44393.12641203704</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4679,10 +4579,8 @@
           <t>4918670908</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-16 03:01:34</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44393.12608796296</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4750,10 +4648,8 @@
           <t>4918670839</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-16 03:01:25</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44393.12598379629</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4821,10 +4717,8 @@
           <t>4918663074</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-16 03:00:45</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44393.12552083333</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4892,10 +4786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-16 02:33:41</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44393.10672453704</v>
       </c>
       <c r="I63" t="n">
         <v>4</v>
@@ -4963,10 +4855,8 @@
           <t>4916139603</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-16 02:27:51</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44393.10267361111</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5034,10 +4924,8 @@
           <t>4918596246</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-16 02:23:02</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44393.09932870371</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5113,10 +5001,8 @@
           <t>4916964115</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-16 02:21:46</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44393.09844907407</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5185,10 +5071,8 @@
           <t>4918576078</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-16 02:16:04</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44393.09449074074</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5256,10 +5140,8 @@
           <t>4918531327</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:58:30</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44393.08229166667</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5327,10 +5209,8 @@
           <t>4917565841</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:55:33</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44393.08024305556</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5398,10 +5278,8 @@
           <t>4916964115</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:55:01</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44393.07987268519</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5469,10 +5347,8 @@
           <t>4918508530</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:50:53</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44393.07700231481</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5548,10 +5424,8 @@
           <t>4918499333</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:50:31</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44393.07674768518</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5619,10 +5493,8 @@
           <t>4918499333</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:50:07</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44393.07646990741</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5690,10 +5562,8 @@
           <t>4918499333</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:49:56</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44393.07634259259</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5761,10 +5631,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:49:30</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44393.07604166667</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5832,10 +5700,8 @@
           <t>4918480324</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:41:14</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44393.07030092592</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5910,10 +5776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:32:30</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44393.06423611111</v>
       </c>
       <c r="I77" t="n">
         <v>7</v>
@@ -5982,10 +5846,8 @@
           <t>4918052120</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:29:50</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44393.06238425926</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6049,10 +5911,8 @@
           <t>4918404903</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:20:32</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44393.05592592592</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6128,10 +5988,8 @@
           <t>4918331067</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:02:33</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44393.0434375</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6203,10 +6061,8 @@
           <t>4918254331</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:45:45</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44393.03177083333</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6278,10 +6134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:45:09</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44393.03135416667</v>
       </c>
       <c r="I82" t="n">
         <v>6</v>
@@ -6349,10 +6203,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:26:39</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44393.01850694444</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6428,10 +6280,8 @@
           <t>4918119003</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:21:45</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44393.01510416667</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6500,10 +6350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:21:20</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44393.01481481481</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6571,10 +6419,8 @@
           <t>4918052120</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:10:38</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44393.00738425926</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6642,10 +6488,8 @@
           <t>4918038778</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:09:05</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44393.00630787037</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6713,10 +6557,8 @@
           <t>4918024360</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:07:03</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44393.00489583334</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6788,10 +6630,8 @@
           <t>4917919895</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:51:55</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44392.99438657407</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6855,10 +6695,8 @@
           <t>4917882201</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:45:26</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44392.98988425926</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6924,10 +6762,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:43:41</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44392.98866898148</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -6993,10 +6829,8 @@
           <t>4917851234</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:40:58</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44392.98678240741</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7068,10 +6902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:17:32</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44392.97050925926</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7131,10 +6963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:17:23</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44392.97040509259</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7206,10 +7036,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:17:00</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44392.97013888889</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7277,10 +7105,8 @@
           <t>4917583751</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:06:23</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44392.9627662037</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7354,10 +7180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:05:04</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44392.96185185185</v>
       </c>
       <c r="I97" t="n">
         <v>15</v>
@@ -7425,10 +7249,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:03:34</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44392.96081018518</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7496,10 +7318,8 @@
           <t>4917565841</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:03:27</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44392.96072916667</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7586,10 +7406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:02:25</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44392.96001157408</v>
       </c>
       <c r="I100" t="n">
         <v>20</v>
@@ -7653,10 +7471,8 @@
           <t>4917493763</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:55:19</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44392.95508101852</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7728,10 +7544,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:50:01</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44392.95140046296</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7795,10 +7609,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:49:14</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44392.95085648148</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7862,10 +7674,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:45:08</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44392.94800925926</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -7933,10 +7743,8 @@
           <t>4917369020</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:39:32</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44392.94412037037</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8012,10 +7820,8 @@
           <t>4917364525</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:38:52</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44392.94365740741</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8091,10 +7897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:38:42</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44392.94354166667</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8162,10 +7966,8 @@
           <t>4917340703</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:35:06</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44392.94104166667</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8233,10 +8035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:31:10</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44392.93831018519</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8300,10 +8100,8 @@
           <t>4917235043</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:24:56</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44392.93398148148</v>
       </c>
       <c r="I110" t="n">
         <v>2</v>
@@ -8367,10 +8165,8 @@
           <t>4917235043</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:21:27</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44392.9315625</v>
       </c>
       <c r="I111" t="n">
         <v>9</v>
@@ -8434,10 +8230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:19:00</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44392.92986111111</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8513,10 +8307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:16:11</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44392.92790509259</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8580,10 +8372,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:15:36</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44392.9275</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8647,10 +8437,8 @@
           <t>4917157015</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:12:17</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44392.92519675926</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8714,10 +8502,8 @@
           <t>4916488457</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:09:14</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44392.9230787037</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8785,10 +8571,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:07:55</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44392.92216435185</v>
       </c>
       <c r="I117" t="n">
         <v>5</v>
@@ -8856,10 +8640,8 @@
           <t>4917117290</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:07:29</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44392.92186342592</v>
       </c>
       <c r="I118" t="n">
         <v>2</v>
@@ -8931,10 +8713,8 @@
           <t>4917120635</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:07:23</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44392.92179398148</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9006,10 +8786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:05:37</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44392.92056712963</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9073,10 +8851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:05:24</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44392.92041666667</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9152,10 +8928,8 @@
           <t>4917043704</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:58:40</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44392.91574074074</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9231,10 +9005,8 @@
           <t>4917042724</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:58:17</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44392.91547453704</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9302,10 +9074,8 @@
           <t>4917017687</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:54:25</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44392.91278935185</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9373,10 +9143,8 @@
           <t>4917015899</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:53:43</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44392.91230324074</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9445,10 +9213,8 @@
           <t>4916978843</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:50:27</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44392.91003472222</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9512,10 +9278,8 @@
           <t>4916964115</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:48:44</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44392.90884259259</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9584,10 +9348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:48:40</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44392.90879629629</v>
       </c>
       <c r="I128" t="n">
         <v>12</v>
@@ -9665,10 +9427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:47:43</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44392.90813657407</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9736,10 +9496,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:43:50</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44392.90543981481</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9815,10 +9573,8 @@
           <t>4916104481</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:40:08</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44392.90287037037</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9895,10 +9651,8 @@
           <t>4916619524</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:34:34</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44392.89900462963</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9970,10 +9724,8 @@
           <t>4916391937</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:32:57</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44392.89788194445</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10049,10 +9801,8 @@
           <t>4916834445</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:31:42</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44392.89701388889</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10129,10 +9879,8 @@
           <t>4916304532</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:28:42</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44392.89493055556</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10210,10 +9958,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:26:56</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44392.8937037037</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10291,10 +10037,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:24:35</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44392.89207175926</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10366,10 +10110,8 @@
           <t>4916488457</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:23:37</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44392.89140046296</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10441,10 +10183,8 @@
           <t>4916488457</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:23:08</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44392.89106481482</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10516,10 +10256,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:22:09</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44392.89038194445</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10587,10 +10325,8 @@
           <t>4916757212</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:21:18</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44392.88979166667</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10662,10 +10398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:18:57</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44392.88815972222</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10729,10 +10463,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:17:49</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44392.88737268518</v>
       </c>
       <c r="I143" t="n">
         <v>7</v>
@@ -10796,10 +10528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:17:44</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44392.88731481481</v>
       </c>
       <c r="I144" t="n">
         <v>32</v>
@@ -10875,10 +10605,8 @@
           <t>4916056981</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:17:27</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44392.88711805556</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10942,10 +10670,8 @@
           <t>4916056981</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:17:02</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44392.8868287037</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11009,10 +10735,8 @@
           <t>4916272591</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:16:41</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44392.88658564815</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11072,10 +10796,8 @@
           <t>4916718671</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:16:02</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44392.88613425926</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -11151,10 +10873,8 @@
           <t>4916354993</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:15:33</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44392.88579861111</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11222,10 +10942,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:15:31</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44392.88577546296</v>
       </c>
       <c r="I150" t="n">
         <v>7</v>
@@ -11301,10 +11019,8 @@
           <t>4916056981</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:15:05</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44392.88547453703</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11369,10 +11085,8 @@
           <t>4916715604</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:14:50</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44392.88530092593</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11441,10 +11155,8 @@
           <t>4916318213</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:13:59</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44392.88471064815</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11516,10 +11228,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:13:26</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44392.8843287037</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11587,10 +11297,8 @@
           <t>4916614031</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:11:48</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44392.88319444445</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11662,10 +11370,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:11:21</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44392.88288194445</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11729,10 +11435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:10:58</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44392.88261574074</v>
       </c>
       <c r="I157" t="n">
         <v>11</v>
@@ -11796,10 +11500,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:10:04</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44392.88199074074</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11863,10 +11565,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:09:22</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44392.88150462963</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11938,10 +11638,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:09:01</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44392.88126157408</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12010,10 +11708,8 @@
           <t>4916044279</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:07:53</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44392.88047453704</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12081,10 +11777,8 @@
           <t>4916197618</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:04:23</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44392.87804398148</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12152,10 +11846,8 @@
           <t>4916619524</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:03:14</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44392.87724537037</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12231,10 +11923,8 @@
           <t>4916614031</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:02:34</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44392.87678240741</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12302,10 +11992,8 @@
           <t>4916611871</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:01:43</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44392.87619212963</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12373,10 +12061,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:01:23</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44392.87596064815</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12440,10 +12126,8 @@
           <t>4916608049</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:01:21</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44392.8759375</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12507,10 +12191,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:00:51</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44392.87559027778</v>
       </c>
       <c r="I168" t="n">
         <v>4</v>
@@ -12574,10 +12256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:00:46</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44392.87553240741</v>
       </c>
       <c r="I169" t="n">
         <v>5</v>
@@ -12641,10 +12321,8 @@
           <t>4916601461</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:00:09</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44392.87510416667</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12712,10 +12390,8 @@
           <t>4916593737</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:59:35</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44392.87471064815</v>
       </c>
       <c r="I171" t="n">
         <v>4</v>
@@ -12787,10 +12463,8 @@
           <t>4916589424</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:59:23</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44392.87457175926</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12862,10 +12536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:58:31</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44392.87396990741</v>
       </c>
       <c r="I173" t="n">
         <v>13</v>
@@ -12933,10 +12605,8 @@
           <t>4916423425</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:58:23</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44392.87387731481</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13008,10 +12678,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:57:45</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44392.8734375</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13083,10 +12751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:57:43</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44392.87341435185</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13150,10 +12816,8 @@
           <t>4916304532</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:57:20</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44392.87314814814</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13229,10 +12893,8 @@
           <t>4916559784</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:55:31</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44392.87188657407</v>
       </c>
       <c r="I178" t="n">
         <v>8</v>
@@ -13304,10 +12966,8 @@
           <t>4916391937</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:55:19</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44392.87174768518</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13383,10 +13043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:54:32</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44392.8712037037</v>
       </c>
       <c r="I180" t="n">
         <v>17</v>
@@ -13454,10 +13112,8 @@
           <t>4916561492</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:54:26</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44392.87113425926</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13525,10 +13181,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:53:52</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44392.87074074074</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13596,10 +13250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:53:25</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44392.87042824074</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13663,10 +13315,8 @@
           <t>4916361664</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:52:43</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44392.86994212963</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13730,10 +13380,8 @@
           <t>4916304504</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:52:40</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44392.86990740741</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13801,10 +13449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:51:12</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44392.86888888889</v>
       </c>
       <c r="I186" t="n">
         <v>5</v>
@@ -13876,10 +13522,8 @@
           <t>4915888724</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:48:47</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44392.86721064815</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13955,10 +13599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:48:42</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44392.86715277778</v>
       </c>
       <c r="I188" t="n">
         <v>9</v>
@@ -14030,10 +13672,8 @@
           <t>4916507507</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:48:01</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44392.86667824074</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14109,10 +13749,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:47:57</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44392.86663194445</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14188,10 +13826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:47:56</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44392.86662037037</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14263,10 +13899,8 @@
           <t>4916391937</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:47:54</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44392.86659722222</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14342,10 +13976,8 @@
           <t>4916498493</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:46:44</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44392.86578703704</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14417,10 +14049,8 @@
           <t>4916423425</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:46:37</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44392.86570601852</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14488,10 +14118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:46:27</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44392.86559027778</v>
       </c>
       <c r="I195" t="n">
         <v>17</v>
@@ -14551,10 +14179,8 @@
           <t>4916391937</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:46:06</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44392.86534722222</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14630,10 +14256,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:45:36</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44392.865</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14701,10 +14325,8 @@
           <t>4916488457</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:44:53</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44392.86450231481</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14772,10 +14394,8 @@
           <t>4916423425</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:44:25</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44392.86417824074</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14843,10 +14463,8 @@
           <t>4916486983</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:44:19</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44392.8641087963</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14914,10 +14532,8 @@
           <t>4916391937</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:43:44</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44392.8637037037</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14993,10 +14609,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:43:14</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44392.86335648148</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15064,10 +14678,8 @@
           <t>4916391937</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:42:00</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44392.8625</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15143,10 +14755,8 @@
           <t>4915812791</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:41:31</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44392.86216435185</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15218,10 +14828,8 @@
           <t>4916459795</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:41:23</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44392.86207175926</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15285,10 +14893,8 @@
           <t>4916459727</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:41:21</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44392.86204861111</v>
       </c>
       <c r="I206" t="n">
         <v>3</v>
@@ -15352,10 +14958,8 @@
           <t>4916465089</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:41:03</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44392.86184027778</v>
       </c>
       <c r="I207" t="n">
         <v>8</v>
@@ -15419,10 +15023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:40:10</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44392.86122685186</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15494,10 +15096,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:38:19</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44392.85994212963</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15573,10 +15173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:37:47</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44392.85957175926</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15652,10 +15250,8 @@
           <t>4916391937</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:37:42</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44392.85951388889</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15731,10 +15327,8 @@
           <t>4916436660</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:37:38</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44392.85946759259</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15798,10 +15392,8 @@
           <t>4916440267</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:37:28</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44392.85935185185</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15865,10 +15457,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:36:42</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44392.85881944445</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15940,10 +15530,8 @@
           <t>4915983685</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:36:29</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44392.85866898148</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16003,10 +15591,8 @@
           <t>4916423425</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:36:19</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44392.85855324074</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -16078,10 +15664,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:36:10</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44392.85844907408</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16149,10 +15733,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:36:01</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44392.85834490741</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16228,10 +15810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:35:45</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44392.85815972222</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16295,10 +15875,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:34:47</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44392.85748842593</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16374,10 +15952,8 @@
           <t>4916139603</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:34:18</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44392.85715277777</v>
       </c>
       <c r="I221" t="n">
         <v>11</v>
@@ -16441,10 +16017,8 @@
           <t>4916387687</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:34:04</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44392.85699074074</v>
       </c>
       <c r="I222" t="n">
         <v>2</v>
@@ -16520,10 +16094,8 @@
           <t>4916065654</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:33:43</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44392.85674768518</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16591,10 +16163,8 @@
           <t>4916139603</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:33:33</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44392.85663194444</v>
       </c>
       <c r="I224" t="n">
         <v>19</v>
@@ -16670,10 +16240,8 @@
           <t>4916209769</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:32:47</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44392.85609953704</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16745,10 +16313,8 @@
           <t>4916391937</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:31:39</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44392.8553125</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16824,10 +16390,8 @@
           <t>4916388074</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:31:36</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44392.85527777778</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16895,10 +16459,8 @@
           <t>4915872144</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:31:29</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44392.85519675926</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16974,10 +16536,8 @@
           <t>4916387687</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:31:27</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44392.85517361111</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17044,10 +16604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:31:06</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44392.85493055556</v>
       </c>
       <c r="I230" t="n">
         <v>9</v>
@@ -17119,10 +16677,8 @@
           <t>4916257543</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:30:45</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44392.8546875</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17190,10 +16746,8 @@
           <t>4915885823</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:30:32</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44392.85453703703</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17257,10 +16811,8 @@
           <t>4916209769</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:30:28</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44392.85449074074</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17324,10 +16876,8 @@
           <t>4916209769</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:30:25</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44392.85445601852</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17399,10 +16949,8 @@
           <t>4916209769</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:29:55</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44392.85410879629</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17474,10 +17022,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:29:45</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44392.85399305556</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17545,10 +17091,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:29:26</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44392.85377314815</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17620,10 +17164,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:29:23</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44392.85373842593</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17687,10 +17229,8 @@
           <t>4916343688</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:28:56</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44392.85342592592</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17758,10 +17298,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:28:35</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44392.85318287037</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17825,10 +17363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:28:34</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44392.85317129629</v>
       </c>
       <c r="I241" t="n">
         <v>7</v>
@@ -17899,10 +17435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:28:15</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44392.85295138889</v>
       </c>
       <c r="I242" t="n">
         <v>11</v>
@@ -17962,10 +17496,8 @@
           <t>4916215247</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:28:10</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44392.85289351852</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18033,10 +17565,8 @@
           <t>4916305921</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:27:55</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44392.85271990741</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18104,10 +17634,8 @@
           <t>4916343688</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:27:50</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44392.85266203704</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18183,10 +17711,8 @@
           <t>4916004815</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:27:48</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44392.85263888889</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18258,10 +17784,8 @@
           <t>4916362742</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:27:45</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44392.85260416667</v>
       </c>
       <c r="I247" t="n">
         <v>9</v>
@@ -18329,10 +17853,8 @@
           <t>4916361664</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:27:18</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44392.85229166667</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18400,10 +17922,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:27:18</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44392.85229166667</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18479,10 +17999,8 @@
           <t>4916318213</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:27:15</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44392.85225694445</v>
       </c>
       <c r="I250" t="n">
         <v>4</v>
@@ -18546,10 +18064,8 @@
           <t>4916257543</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:27:13</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44392.85223379629</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18617,10 +18133,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:27:10</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44392.85219907408</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18696,10 +18210,8 @@
           <t>4916354993</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:27:07</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44392.85216435185</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18767,10 +18279,8 @@
           <t>4916360476</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:26:48</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44392.85194444445</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18838,10 +18348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:26:39</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44392.85184027778</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -18905,10 +18413,8 @@
           <t>4916209769</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:26:39</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44392.85184027778</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18972,10 +18478,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:26:37</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44392.85181712963</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19039,10 +18543,8 @@
           <t>4916065654</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:26:34</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44392.85178240741</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19118,10 +18620,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:26:05</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44392.85144675926</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19189,10 +18689,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:25:52</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44392.8512962963</v>
       </c>
       <c r="I260" t="n">
         <v>4</v>
@@ -19260,10 +18758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:25:39</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44392.85114583333</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19331,10 +18827,8 @@
           <t>4916305921</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:25:18</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44392.85090277778</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19402,10 +18896,8 @@
           <t>4916350633</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:25:16</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44392.85087962963</v>
       </c>
       <c r="I263" t="n">
         <v>5</v>
@@ -19473,10 +18965,8 @@
           <t>4916343688</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:25:12</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44392.85083333333</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19544,10 +19034,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:25:12</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44392.85083333333</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19619,10 +19107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:25:06</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44392.85076388889</v>
       </c>
       <c r="I266" t="n">
         <v>6</v>
@@ -19698,10 +19184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:25:03</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44392.85072916667</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19773,10 +19257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:24:45</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44392.85052083333</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19848,10 +19330,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:24:45</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44392.85052083333</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -19915,10 +19395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:24:39</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44392.85045138889</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -19994,10 +19472,8 @@
           <t>4916215247</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:24:17</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44392.85019675926</v>
       </c>
       <c r="I271" t="n">
         <v>3</v>
@@ -20065,10 +19541,8 @@
           <t>4916139603</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:23:48</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44392.84986111111</v>
       </c>
       <c r="I272" t="n">
         <v>11</v>
@@ -20145,10 +19619,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:23:28</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44392.84962962963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20216,10 +19688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:23:20</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44392.84953703704</v>
       </c>
       <c r="I274" t="n">
         <v>13</v>
@@ -20295,10 +19765,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:23:13</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44392.84945601852</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20366,10 +19834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:23:01</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44392.84931712963</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20441,10 +19907,8 @@
           <t>4916305921</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:22:55</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44392.84924768518</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20520,10 +19984,8 @@
           <t>4916318213</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:22:55</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44392.84924768518</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20600,10 +20062,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:22:15</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44392.84878472222</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20671,10 +20131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:22:10</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44392.84872685185</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20742,10 +20200,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:21:44</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44392.84842592593</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -20821,10 +20277,8 @@
           <t>4916318213</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:21:38</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44392.84835648148</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20892,10 +20346,8 @@
           <t>4916294776</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:21:23</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44392.84818287037</v>
       </c>
       <c r="I283" t="n">
         <v>3</v>
@@ -20955,10 +20407,8 @@
           <t>4916305921</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:21:21</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44392.84815972222</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21026,10 +20476,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:21:03</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44392.84795138889</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21105,10 +20553,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:21:00</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44392.84791666667</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21176,10 +20622,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:20:17</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44392.84741898148</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21251,10 +20695,8 @@
           <t>4916304532</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:20:06</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44392.84729166667</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21333,10 +20775,8 @@
           <t>4916304504</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:20:05</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44392.8472800926</v>
       </c>
       <c r="I289" t="n">
         <v>6</v>
@@ -21405,10 +20845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:19:53</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44392.8471412037</v>
       </c>
       <c r="I290" t="n">
         <v>9</v>
@@ -21476,10 +20914,8 @@
           <t>4916257543</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:19:45</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44392.84704861111</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21547,10 +20983,8 @@
           <t>4916311188</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:19:39</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44392.84697916666</v>
       </c>
       <c r="I292" t="n">
         <v>5</v>
@@ -21626,10 +21060,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:19:36</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44392.84694444444</v>
       </c>
       <c r="I293" t="n">
         <v>6</v>
@@ -21693,10 +21125,8 @@
           <t>4915910875</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:19:26</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44392.8468287037</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21772,10 +21202,8 @@
           <t>4916197721</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:19:25</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44392.84681712963</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21853,10 +21281,8 @@
           <t>4916310327</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:19:15</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44392.84670138889</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21932,10 +21358,8 @@
           <t>4916305921</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:19:06</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44392.84659722223</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22011,10 +21435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:18:54</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44392.84645833333</v>
       </c>
       <c r="I298" t="n">
         <v>4</v>
@@ -22078,10 +21500,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:18:49</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44392.84640046296</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22149,10 +21569,8 @@
           <t>4916294776</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:18:38</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44392.84627314815</v>
       </c>
       <c r="I300" t="n">
         <v>4</v>
@@ -22216,10 +21634,8 @@
           <t>4916300890</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:18:32</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44392.8462037037</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22283,10 +21699,8 @@
           <t>4916004992</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:18:21</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44392.84607638889</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22354,10 +21768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:18:01</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44392.84584490741</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22429,10 +21841,8 @@
           <t>4916293212</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:17:57</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44392.84579861111</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22508,10 +21918,8 @@
           <t>4916292762</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:17:45</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44392.84565972222</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22583,10 +21991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:17:43</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44392.84563657407</v>
       </c>
       <c r="I306" t="n">
         <v>13</v>
@@ -22650,10 +22056,8 @@
           <t>4916292434</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:17:37</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44392.84556712963</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22721,10 +22125,8 @@
           <t>4916197721</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:16:12</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44392.84458333333</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22800,10 +22202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:16:10</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44392.84456018519</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22867,10 +22267,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:16:07</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44392.84452546296</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22938,10 +22336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:15:47</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44392.84429398148</v>
       </c>
       <c r="I311" t="n">
         <v>13</v>
@@ -23001,10 +22397,8 @@
           <t>4916282575</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:15:47</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44392.84429398148</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23072,10 +22466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:15:35</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44392.84415509259</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23151,10 +22543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:15:26</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44392.84405092592</v>
       </c>
       <c r="I314" t="n">
         <v>13</v>
@@ -23222,10 +22612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:15:25</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44392.84403935185</v>
       </c>
       <c r="I315" t="n">
         <v>34</v>
@@ -23289,10 +22677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:15:06</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44392.84381944445</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23368,10 +22754,8 @@
           <t>4916272591</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:14:56</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44392.8437037037</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23443,10 +22827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:14:41</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44392.84353009259</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23510,10 +22892,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:14:38</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44392.84349537037</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23585,10 +22965,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:14:21</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44392.84329861111</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23664,10 +23042,8 @@
           <t>4916269295</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:14:19</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44392.84327546296</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23743,10 +23119,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:14:12</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44392.84319444445</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23822,10 +23196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:14:01</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44392.84306712963</v>
       </c>
       <c r="I323" t="n">
         <v>4</v>
@@ -23901,10 +23273,8 @@
           <t>4916270261</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:13:55</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44392.84299768518</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -23980,10 +23350,8 @@
           <t>4916267937</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:13:43</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44392.8428587963</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24059,10 +23427,8 @@
           <t>4916262103</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:13:18</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44392.84256944444</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24139,10 +23505,8 @@
           <t>4916261610</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:13:06</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44392.84243055555</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24214,10 +23578,8 @@
           <t>4916257543</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:12:46</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44392.84219907408</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24285,10 +23647,8 @@
           <t>4916197721</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:12:46</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44392.84219907408</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24356,10 +23716,8 @@
           <t>4916260397</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:12:35</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44392.84207175926</v>
       </c>
       <c r="I330" t="n">
         <v>8</v>
@@ -24431,10 +23789,8 @@
           <t>4916260171</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:12:29</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44392.84200231481</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24506,10 +23862,8 @@
           <t>4916249866</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:12:22</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44392.8419212963</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24577,10 +23931,8 @@
           <t>4916253996</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:12:01</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44392.84167824074</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24644,10 +23996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:11:51</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44392.8415625</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -24715,10 +24065,8 @@
           <t>4916149931</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:11:33</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44392.84135416667</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24786,10 +24134,8 @@
           <t>4916243523</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:11:06</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44392.84104166667</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24862,10 +24208,8 @@
           <t>4916065654</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:10:55</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44392.84091435185</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24929,10 +24273,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:10:52</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44392.84087962963</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24996,10 +24338,8 @@
           <t>4916246428</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:10:49</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44392.8408449074</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25071,10 +24411,8 @@
           <t>4916250150</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:10:26</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44392.8405787037</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25138,10 +24476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:10:21</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44392.84052083334</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25205,10 +24541,8 @@
           <t>4916240669</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:55</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44392.8402199074</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25272,10 +24606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:40</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44392.8400462963</v>
       </c>
       <c r="I343" t="n">
         <v>19</v>
@@ -25344,10 +24676,8 @@
           <t>4916238244</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:38</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44392.84002314815</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25419,10 +24749,8 @@
           <t>4916182706</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:31</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44392.83994212963</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25498,10 +24826,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:28</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44392.8399074074</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25569,10 +24895,8 @@
           <t>4916197721</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:15</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44392.83975694444</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25648,10 +24972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:12</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44392.83972222222</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25723,10 +25045,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:02</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44392.83960648148</v>
       </c>
       <c r="I349" t="n">
         <v>3</v>
@@ -25790,10 +25110,8 @@
           <t>4916231344</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:08:35</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44392.83929398148</v>
       </c>
       <c r="I350" t="n">
         <v>2</v>
@@ -25869,10 +25187,8 @@
           <t>4916056981</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:08:30</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44392.83923611111</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25936,10 +25252,8 @@
           <t>4916227147</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:08:25</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44392.83917824074</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26015,10 +25329,8 @@
           <t>4915947996</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:08:22</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44392.83914351852</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26082,10 +25394,8 @@
           <t>4916219861</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:07:56</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44392.8388425926</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -26161,10 +25471,8 @@
           <t>4915872144</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:07:53</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44392.83880787037</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26236,10 +25544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:07:33</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44392.83857638889</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26303,10 +25609,8 @@
           <t>4916065654</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:07:32</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44392.83856481482</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26374,10 +25678,8 @@
           <t>4916223059</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:07:27</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44392.83850694444</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26444,10 +25746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:07:22</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44392.83844907407</v>
       </c>
       <c r="I359" t="n">
         <v>13</v>
@@ -26515,10 +25815,8 @@
           <t>4916065654</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:07:22</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44392.83844907407</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26586,10 +25884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:07:16</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44392.83837962963</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26661,10 +25957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:07:11</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44392.83832175926</v>
       </c>
       <c r="I362" t="n">
         <v>21</v>
@@ -26732,10 +26026,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:07:09</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44392.83829861111</v>
       </c>
       <c r="I363" t="n">
         <v>29</v>
@@ -26807,10 +26099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:06:56</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44392.83814814815</v>
       </c>
       <c r="I364" t="n">
         <v>3</v>
@@ -26886,10 +26176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:06:47</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44392.83804398148</v>
       </c>
       <c r="I365" t="n">
         <v>12</v>
@@ -26949,10 +26237,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:06:43</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44392.83799768519</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27016,10 +26302,8 @@
           <t>4916005409</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:06:32</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44392.83787037037</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27083,10 +26367,8 @@
           <t>4916212170</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:06:22</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44392.83775462963</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27162,10 +26444,8 @@
           <t>4916211898</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:06:15</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44392.83767361111</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27229,10 +26509,8 @@
           <t>4916209978</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:06:14</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44392.83766203704</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27292,10 +26570,8 @@
           <t>4916209769</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:06:08</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44392.83759259259</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27359,10 +26635,8 @@
           <t>4916215247</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:05:57</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44392.83746527778</v>
       </c>
       <c r="I372" t="n">
         <v>7</v>
@@ -27426,10 +26700,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:05:43</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44392.83730324074</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27501,10 +26773,8 @@
           <t>4915872144</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:05:28</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44392.83712962963</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27576,10 +26846,8 @@
           <t>4916203816</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:05:20</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44392.83703703704</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -27651,10 +26919,8 @@
           <t>4916199510</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:05:16</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44392.83699074074</v>
       </c>
       <c r="I376" t="n">
         <v>2</v>
@@ -27730,10 +26996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:04:55</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44392.83674768519</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27805,10 +27069,8 @@
           <t>4916198215</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:04:43</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44392.83660879629</v>
       </c>
       <c r="I378" t="n">
         <v>2</v>
@@ -27880,10 +27142,8 @@
           <t>4916139603</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:04:32</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44392.83648148148</v>
       </c>
       <c r="I379" t="n">
         <v>47</v>
@@ -27947,10 +27207,8 @@
           <t>4916197721</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:04:31</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44392.83646990741</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28018,10 +27276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:04:29</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44392.83644675926</v>
       </c>
       <c r="I381" t="n">
         <v>5</v>
@@ -28089,10 +27345,8 @@
           <t>4916197618</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:04:28</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44392.83643518519</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28164,10 +27418,8 @@
           <t>4916065654</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:03:52</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44392.83601851852</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28231,10 +27483,8 @@
           <t>4916004992</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:03:42</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44392.83590277778</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28310,10 +27560,8 @@
           <t>4915872144</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:03:22</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44392.8356712963</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28385,10 +27633,8 @@
           <t>4916184564</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:03:12</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44392.83555555555</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28452,10 +27698,8 @@
           <t>4916184551</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:03:11</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44392.83554398148</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28523,10 +27767,8 @@
           <t>4916005409</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:02:54</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44392.83534722222</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28590,10 +27832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:02:49</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44392.83528935185</v>
       </c>
       <c r="I389" t="n">
         <v>2</v>
@@ -28665,10 +27905,8 @@
           <t>4916183625</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:02:49</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44392.83528935185</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28740,10 +27978,8 @@
           <t>4915885823</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:02:44</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44392.83523148148</v>
       </c>
       <c r="I391" t="n">
         <v>13</v>
@@ -28815,10 +28051,8 @@
           <t>4916187760</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:02:40</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44392.83518518518</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28882,10 +28116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:02:31</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44392.83508101852</v>
       </c>
       <c r="I393" t="n">
         <v>3</v>
@@ -28949,10 +28181,8 @@
           <t>4916182706</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:02:27</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44392.83503472222</v>
       </c>
       <c r="I394" t="n">
         <v>5</v>
@@ -29016,10 +28246,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:02:14</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44392.83488425926</v>
       </c>
       <c r="I395" t="n">
         <v>3</v>
@@ -29083,10 +28311,8 @@
           <t>4916181723</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:02:03</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44392.83475694444</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29150,10 +28376,8 @@
           <t>4916056981</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:01:41</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44392.83450231481</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29217,10 +28441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:01:20</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44392.83425925926</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29292,10 +28514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:00:52</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44392.83393518518</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29363,10 +28583,8 @@
           <t>4915928043</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:00:43</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44392.83383101852</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29442,10 +28660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:00:37</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44392.83376157407</v>
       </c>
       <c r="I401" t="n">
         <v>19</v>
@@ -29518,10 +28734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:00:33</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44392.83371527777</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29585,10 +28799,8 @@
           <t>4915872144</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:00:32</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44392.83370370371</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29660,10 +28872,8 @@
           <t>4916175277</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:00:19</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44392.83355324074</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29735,10 +28945,8 @@
           <t>4915872144</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:00:07</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44392.83341435185</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29810,10 +29018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:59:46</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44392.8331712963</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -29877,10 +29083,8 @@
           <t>4916065654</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:59:43</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44392.83313657407</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29948,10 +29152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:59:35</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44392.83304398148</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30019,10 +29221,8 @@
           <t>4916005409</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:59:27</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44392.83295138889</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30086,10 +29286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:59:25</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44392.83292824074</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30165,10 +29363,8 @@
           <t>4915872144</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:59:20</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44392.83287037037</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30240,10 +29436,8 @@
           <t>4916158815</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:59:00</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44392.83263888889</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30319,10 +29513,8 @@
           <t>4916160977</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:58:36</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44392.83236111111</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30398,10 +29590,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:58:32</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44392.83231481481</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30473,10 +29663,8 @@
           <t>4916149931</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:58:11</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44392.83207175926</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30544,10 +29732,8 @@
           <t>4916156236</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:57:59</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44392.83193287037</v>
       </c>
       <c r="I416" t="n">
         <v>4</v>
@@ -30623,10 +29809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:57:23</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44392.8315162037</v>
       </c>
       <c r="I417" t="n">
         <v>2</v>
@@ -30694,10 +29878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:57:22</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44392.83150462963</v>
       </c>
       <c r="I418" t="n">
         <v>2</v>
@@ -30769,10 +29951,8 @@
           <t>4916139603</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:57:14</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44392.83141203703</v>
       </c>
       <c r="I419" t="n">
         <v>29</v>
@@ -30844,10 +30024,8 @@
           <t>4916143676</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:56:58</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44392.83122685185</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30923,10 +30101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:56:45</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44392.83107638889</v>
       </c>
       <c r="I421" t="n">
         <v>3</v>
@@ -30994,10 +30170,8 @@
           <t>4915872144</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:56:32</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44392.83092592593</v>
       </c>
       <c r="I422" t="n">
         <v>2</v>
@@ -31061,10 +30235,8 @@
           <t>4916145122</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:56:15</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44392.83072916666</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31140,10 +30312,8 @@
           <t>4916088966</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:56:08</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44392.83064814815</v>
       </c>
       <c r="I424" t="n">
         <v>2</v>
@@ -31211,10 +30381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:55:51</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44392.83045138889</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31278,10 +30446,8 @@
           <t>4915914506</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:55:36</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44392.83027777778</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31360,10 +30526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:55:34</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44392.83025462963</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31431,10 +30595,8 @@
           <t>4916124980</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:55:15</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44392.83003472222</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31498,10 +30660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:55:11</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44392.82998842592</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31569,10 +30729,8 @@
           <t>4916132316</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:55:09</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44392.82996527778</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31636,10 +30794,8 @@
           <t>4916127663</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:54:34</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44392.82956018519</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31715,10 +30871,8 @@
           <t>4916088966</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:54:26</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44392.82946759259</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31790,10 +30944,8 @@
           <t>4916126734</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:54:10</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44392.82928240741</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31870,10 +31022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:54:07</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44392.82924768519</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31949,10 +31099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:53:49</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44392.82903935185</v>
       </c>
       <c r="I435" t="n">
         <v>630</v>
@@ -32016,10 +31164,8 @@
           <t>4916118785</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:53:47</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44392.8290162037</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32087,10 +31233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:53:44</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44392.82898148148</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32162,10 +31306,8 @@
           <t>4916114147</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:53:09</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44392.82857638889</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32229,10 +31371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:52:54</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44392.82840277778</v>
       </c>
       <c r="I439" t="n">
         <v>6</v>
@@ -32298,10 +31438,8 @@
           <t>4916113473</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:52:53</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44392.8283912037</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32369,10 +31507,8 @@
           <t>4916088966</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:52:47</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44392.82832175926</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32444,10 +31580,8 @@
           <t>4915810416</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:52:40</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44392.82824074074</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32523,10 +31657,8 @@
           <t>4916104481</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:52:34</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44392.8281712963</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32598,10 +31730,8 @@
           <t>4916004992</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:52:13</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44392.82792824074</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32669,10 +31799,8 @@
           <t>4916102359</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:52:10</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44392.82789351852</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32744,10 +31872,8 @@
           <t>4916104481</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:52:03</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44392.8278125</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32824,10 +31950,8 @@
           <t>4916005409</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:51:48</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44392.82763888889</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32891,10 +32015,8 @@
           <t>4916102359</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:51:12</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44392.82722222222</v>
       </c>
       <c r="I448" t="n">
         <v>10</v>
@@ -32958,10 +32080,8 @@
           <t>4916099287</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:51:10</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44392.82719907408</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33037,10 +32157,8 @@
           <t>4916005409</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:51:05</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44392.82714120371</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33104,10 +32222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:51:02</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44392.82710648148</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33184,10 +32300,8 @@
           <t>4916067792</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:51:02</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44392.82710648148</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33255,10 +32369,8 @@
           <t>4916083113</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:50:11</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44392.82651620371</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33330,10 +32442,8 @@
           <t>4916067792</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:50:10</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44392.82650462963</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33397,10 +32507,8 @@
           <t>4916088966</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:49:51</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44392.82628472222</v>
       </c>
       <c r="I455" t="n">
         <v>2</v>
@@ -33460,10 +32568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:49:44</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44392.82620370371</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -33531,10 +32637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:49:41</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44392.82616898148</v>
       </c>
       <c r="I457" t="n">
         <v>6</v>
@@ -33606,10 +32710,8 @@
           <t>4916091127</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:49:27</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44392.82600694444</v>
       </c>
       <c r="I458" t="n">
         <v>13</v>
@@ -33681,10 +32783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:49:05</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44392.82575231481</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33756,10 +32856,8 @@
           <t>4916084032</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:49:03</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44392.82572916667</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -33827,10 +32925,8 @@
           <t>4916079944</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:57</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44392.82565972222</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33894,10 +32990,8 @@
           <t>4916043166</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:56</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44392.82564814815</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33969,10 +33063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:50</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44392.82557870371</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34040,10 +33132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:40</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44392.82546296297</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34107,10 +33197,8 @@
           <t>4916083113</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:39</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44392.82545138889</v>
       </c>
       <c r="I465" t="n">
         <v>15</v>
@@ -34179,10 +33267,8 @@
           <t>4916005409</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:35</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44392.82540509259</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34250,10 +33336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:34</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44392.82539351852</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34329,10 +33413,8 @@
           <t>4915872144</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:31</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44392.8253587963</v>
       </c>
       <c r="I468" t="n">
         <v>2</v>
@@ -34396,10 +33478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:17</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44392.82519675926</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34463,10 +33543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:12</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44392.82513888889</v>
       </c>
       <c r="I470" t="n">
         <v>7</v>
@@ -34538,10 +33616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:09</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44392.82510416667</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34617,10 +33693,8 @@
           <t>4916074592</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:48:05</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44392.82505787037</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34692,10 +33766,8 @@
           <t>4916067792</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:47:49</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44392.82487268518</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34759,10 +33831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:47:46</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44392.82483796297</v>
       </c>
       <c r="I474" t="n">
         <v>65</v>
@@ -34834,10 +33904,8 @@
           <t>4916076177</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:47:17</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44392.82450231481</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34909,10 +33977,8 @@
           <t>4916067792</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:47:12</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44392.82444444444</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -34984,10 +34050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:47:06</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44392.824375</v>
       </c>
       <c r="I477" t="n">
         <v>32</v>
@@ -35059,10 +34123,8 @@
           <t>4916068829</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:46:53</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44392.82422453703</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35127,10 +34189,8 @@
           <t>4916060759</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:46:39</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44392.8240625</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35198,10 +34258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:46:37</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44392.82403935185</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35277,10 +34335,8 @@
           <t>4916067792</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:46:28</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44392.82393518519</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35344,10 +34400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:46:27</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44392.82392361111</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35415,10 +34469,8 @@
           <t>4916050909</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:46:10</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44392.82372685185</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35487,10 +34539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:46:03</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44392.82364583333</v>
       </c>
       <c r="I484" t="n">
         <v>24</v>
@@ -35554,10 +34604,8 @@
           <t>4916005409</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:46:03</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44392.82364583333</v>
       </c>
       <c r="I485" t="n">
         <v>2</v>
@@ -35621,10 +34669,8 @@
           <t>4916062498</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:45:38</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44392.82335648148</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35696,10 +34742,8 @@
           <t>4916065654</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:45:34</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44392.82331018519</v>
       </c>
       <c r="I487" t="n">
         <v>14</v>
@@ -35767,10 +34811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:45:31</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44392.82327546296</v>
       </c>
       <c r="I488" t="n">
         <v>1</v>
@@ -35842,10 +34884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:45:27</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44392.82322916666</v>
       </c>
       <c r="I489" t="n">
         <v>7</v>
@@ -35921,10 +34961,8 @@
           <t>4916056981</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:44:56</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44392.82287037037</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36000,10 +35038,8 @@
           <t>4916060759</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:44:52</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44392.82282407407</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36067,10 +35103,8 @@
           <t>4916056268</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:44:39</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44392.82267361111</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36138,10 +35172,8 @@
           <t>4916049718</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:44:25</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44392.82251157407</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36213,10 +35245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:44:06</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44392.82229166666</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36280,10 +35310,8 @@
           <t>4916044279</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:43:48</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44392.82208333333</v>
       </c>
       <c r="I495" t="n">
         <v>4</v>
@@ -36351,10 +35379,8 @@
           <t>4916050909</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:43:36</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44392.82194444445</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36430,10 +35456,8 @@
           <t>4916050477</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:43:26</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44392.8218287037</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36505,10 +35529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:42:56</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44392.82148148148</v>
       </c>
       <c r="I498" t="n">
         <v>16</v>
@@ -36573,10 +35595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:42:42</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44392.82131944445</v>
       </c>
       <c r="I499" t="n">
         <v>14</v>
@@ -36652,10 +35672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:42:13</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44392.82098379629</v>
       </c>
       <c r="I500" t="n">
         <v>88</v>
@@ -36731,10 +35749,8 @@
           <t>4916037435</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:42:09</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44392.8209375</v>
       </c>
       <c r="I501" t="n">
         <v>1</v>
@@ -36806,10 +35822,8 @@
           <t>4916036619</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:41:48</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44392.82069444445</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36877,10 +35891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:41:25</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44392.82042824074</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -36944,10 +35956,8 @@
           <t>4915812791</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:40:29</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44392.81978009259</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37011,10 +36021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:39:49</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44392.81931712963</v>
       </c>
       <c r="I505" t="n">
         <v>4</v>
@@ -37074,10 +36082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:39:26</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44392.81905092593</v>
       </c>
       <c r="I506" t="n">
         <v>2</v>
@@ -37145,10 +36151,8 @@
           <t>4916013767</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:39:21</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44392.81899305555</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
@@ -37224,10 +36228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:39:10</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44392.81886574074</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37299,10 +36301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:39:06</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44392.81881944444</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37370,10 +36370,8 @@
           <t>4916020278</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:39:06</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44392.81881944444</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37445,10 +36443,8 @@
           <t>4916009870</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:38:56</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44392.81870370371</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37524,10 +36520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:38:46</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44392.81858796296</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37603,10 +36597,8 @@
           <t>4916004815</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:38:26</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44392.81835648148</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37670,10 +36662,8 @@
           <t>4916004815</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:38:24</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44392.81833333334</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37745,10 +36735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:38:15</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44392.81822916667</v>
       </c>
       <c r="I515" t="n">
         <v>122</v>
@@ -37820,10 +36808,8 @@
           <t>4916005409</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:38:03</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44392.81809027777</v>
       </c>
       <c r="I516" t="n">
         <v>2</v>
@@ -37899,10 +36885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:38:01</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44392.81806712963</v>
       </c>
       <c r="I517" t="n">
         <v>406</v>
@@ -37970,10 +36954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:38:00</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44392.81805555556</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38045,10 +37027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:37:48</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44392.81791666667</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38124,10 +37104,8 @@
           <t>4915940931</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:37:46</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44392.81789351852</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38199,10 +37177,8 @@
           <t>4916004992</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:37:44</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44392.81787037037</v>
       </c>
       <c r="I521" t="n">
         <v>6</v>
@@ -38278,10 +37254,8 @@
           <t>4916004815</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:37:39</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44392.8178125</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38345,10 +37319,8 @@
           <t>4915998495</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:37:10</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44392.81747685185</v>
       </c>
       <c r="I523" t="n">
         <v>2</v>
@@ -38412,10 +37384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:37:01</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44392.81737268518</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38491,10 +37461,8 @@
           <t>4916005007</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:36:52</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44392.81726851852</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38562,10 +37530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:36:46</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44392.81719907407</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38637,10 +37603,8 @@
           <t>4916002061</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:36:29</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44392.81700231481</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38712,10 +37676,8 @@
           <t>4915996583</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:36:18</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44392.816875</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38783,10 +37745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:36:11</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44392.81679398148</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -38858,10 +37818,8 @@
           <t>4915989386</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:35:22</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44392.81622685185</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38929,10 +37887,8 @@
           <t>4915983685</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:35:00</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44392.81597222222</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39000,10 +37956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:34:55</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44392.81591435185</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39084,10 +38038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:34:54</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44392.81590277778</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39155,10 +38107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:34:44</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44392.81578703703</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39226,10 +38176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:34:41</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44392.81575231482</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39301,10 +38249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:34:28</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44392.81560185185</v>
       </c>
       <c r="I536" t="n">
         <v>1</v>
@@ -39372,10 +38318,8 @@
           <t>4915981022</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:33:50</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44392.81516203703</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39443,10 +38387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:33:33</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44392.81496527778</v>
       </c>
       <c r="I538" t="n">
         <v>108</v>
@@ -39518,10 +38460,8 @@
           <t>4915910875</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:33:31</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44392.81494212963</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39597,10 +38537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:33:28</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44392.81490740741</v>
       </c>
       <c r="I540" t="n">
         <v>1</v>
@@ -39676,10 +38614,8 @@
           <t>4915975845</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:32:58</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44392.81456018519</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39755,10 +38691,8 @@
           <t>4915810416</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:32:47</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44392.81443287037</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39834,10 +38768,8 @@
           <t>4915810416</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:32:05</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44392.81394675926</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39909,10 +38841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:31:57</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44392.81385416666</v>
       </c>
       <c r="I544" t="n">
         <v>38</v>
@@ -39988,10 +38918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:31:55</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44392.81383101852</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40067,10 +38995,8 @@
           <t>4915966520</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:31:53</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44392.81380787037</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40138,10 +39064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:31:50</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44392.81377314815</v>
       </c>
       <c r="I547" t="n">
         <v>6</v>
@@ -40217,10 +39141,8 @@
           <t>4915966101</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:31:42</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44392.81368055556</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40288,10 +39210,8 @@
           <t>4915970470</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:31:37</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44392.81362268519</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40359,10 +39279,8 @@
           <t>4915959703</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:31:19</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44392.81341435185</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40430,10 +39348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:30:56</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44392.81314814815</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40509,10 +39425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:30:51</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44392.81309027778</v>
       </c>
       <c r="I552" t="n">
         <v>4</v>
@@ -40580,10 +39494,8 @@
           <t>4915952863</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:30:18</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44392.81270833333</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -40655,10 +39567,8 @@
           <t>4915928043</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:30:06</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44392.81256944445</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40726,10 +39636,8 @@
           <t>4915812791</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:29:59</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44392.81248842592</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40797,10 +39705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:29:52</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44392.81240740741</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40872,10 +39778,8 @@
           <t>4915947996</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:29:45</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44392.81232638889</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40951,10 +39855,8 @@
           <t>4915831734</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:29:42</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44392.81229166667</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41022,10 +39924,8 @@
           <t>4915955782</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:29:42</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44392.81229166667</v>
       </c>
       <c r="I559" t="n">
         <v>2</v>
@@ -41097,10 +39997,8 @@
           <t>4915951174</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:29:32</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44392.81217592592</v>
       </c>
       <c r="I560" t="n">
         <v>9</v>
@@ -41172,10 +40070,8 @@
           <t>4915906256</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:28:21</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44392.81135416667</v>
       </c>
       <c r="I561" t="n">
         <v>1</v>
@@ -41247,10 +40143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:28:06</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44392.81118055555</v>
       </c>
       <c r="I562" t="n">
         <v>7</v>
@@ -41318,10 +40212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:28:03</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44392.81114583334</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41397,10 +40289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:27:44</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44392.81092592593</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41464,10 +40354,8 @@
           <t>4915940931</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:27:41</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44392.81089120371</v>
       </c>
       <c r="I565" t="n">
         <v>10</v>
@@ -41539,10 +40427,8 @@
           <t>4915906256</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:27:24</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44392.81069444444</v>
       </c>
       <c r="I566" t="n">
         <v>3</v>
@@ -41618,10 +40504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:27:12</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44392.81055555555</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41689,10 +40573,8 @@
           <t>4915928043</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:26:30</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44392.81006944444</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41768,10 +40650,8 @@
           <t>4915906256</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:26:29</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44392.81005787037</v>
       </c>
       <c r="I569" t="n">
         <v>1</v>
@@ -41843,10 +40723,8 @@
           <t>4915919867</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:26:19</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44392.80994212963</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41919,10 +40797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:26:14</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44392.80988425926</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -41998,10 +40874,8 @@
           <t>4915923521</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:26:08</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44392.80981481481</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42065,10 +40939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:26:04</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44392.80976851852</v>
       </c>
       <c r="I573" t="n">
         <v>8</v>
@@ -42132,10 +41004,8 @@
           <t>4915923259</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:26:01</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44392.8097337963</v>
       </c>
       <c r="I574" t="n">
         <v>2</v>
@@ -42203,10 +41073,8 @@
           <t>4915922293</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:25:36</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44392.80944444444</v>
       </c>
       <c r="I575" t="n">
         <v>1</v>
@@ -42270,10 +41138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:25:35</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44392.80943287037</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42337,10 +41203,8 @@
           <t>4915925419</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:25:27</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44392.80934027778</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42408,10 +41272,8 @@
           <t>4915917412</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:25:19</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44392.80924768518</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42475,10 +41337,8 @@
           <t>4915914506</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:25:04</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44392.80907407407</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42538,10 +41398,8 @@
           <t>4915885823</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:25:02</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44392.80905092593</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -42613,10 +41471,8 @@
           <t>4915810416</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:24:36</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44392.80875</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42688,10 +41544,8 @@
           <t>4915909832</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:24:34</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44392.80872685185</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42759,10 +41613,8 @@
           <t>4915906256</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:24:34</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44392.80872685185</v>
       </c>
       <c r="I583" t="n">
         <v>2</v>
@@ -42838,10 +41690,8 @@
           <t>4915831734</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:24:11</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44392.80846064815</v>
       </c>
       <c r="I584" t="n">
         <v>1</v>
@@ -42909,10 +41759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:24:00</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44392.80833333333</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42984,10 +41832,8 @@
           <t>4915910875</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:23:42</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44392.808125</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43059,10 +41905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:23:38</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44392.8080787037</v>
       </c>
       <c r="I587" t="n">
         <v>1</v>
@@ -43138,10 +41982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:23:38</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44392.8080787037</v>
       </c>
       <c r="I588" t="n">
         <v>1</v>
@@ -43205,10 +42047,8 @@
           <t>4915815160</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:23:35</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44392.80804398148</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43268,10 +42108,8 @@
           <t>4915907372</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:23:33</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44392.80802083333</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43385,10 +42223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:23:27</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44392.80795138889</v>
       </c>
       <c r="I591" t="n">
         <v>103</v>
@@ -43464,10 +42300,8 @@
           <t>4915906256</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:23:05</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44392.80769675926</v>
       </c>
       <c r="I592" t="n">
         <v>2</v>
@@ -43539,10 +42373,8 @@
           <t>4915901780</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:23:03</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44392.80767361111</v>
       </c>
       <c r="I593" t="n">
         <v>2</v>
@@ -43602,10 +42434,8 @@
           <t>4915812791</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:22:56</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44392.8075925926</v>
       </c>
       <c r="I594" t="n">
         <v>1</v>
@@ -43674,10 +42504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:22:52</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44392.8075462963</v>
       </c>
       <c r="I595" t="n">
         <v>6</v>
@@ -43741,10 +42569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:22:44</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44392.8074537037</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -43812,10 +42638,8 @@
           <t>4915855276</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:22:44</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44392.8074537037</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -43879,10 +42703,8 @@
           <t>4915823854</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:22:41</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44392.80741898148</v>
       </c>
       <c r="I598" t="n">
         <v>1</v>
@@ -43950,10 +42772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:22:34</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44392.80733796296</v>
       </c>
       <c r="I599" t="n">
         <v>6</v>
@@ -44029,10 +42849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:22:33</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44392.80732638889</v>
       </c>
       <c r="I600" t="n">
         <v>5</v>
@@ -44104,10 +42922,8 @@
           <t>4915810416</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:22:16</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44392.80712962963</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44171,10 +42987,8 @@
           <t>4915888724</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:21:53</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44392.80686342593</v>
       </c>
       <c r="I602" t="n">
         <v>11</v>
@@ -44250,10 +43064,8 @@
           <t>4915888110</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:21:39</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44392.80670138889</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44321,10 +43133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:21:32</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44392.80662037037</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44384,10 +43194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:21:30</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44392.80659722222</v>
       </c>
       <c r="I605" t="n">
         <v>15</v>
@@ -44455,10 +43263,8 @@
           <t>4915887509</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:21:25</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44392.80653935186</v>
       </c>
       <c r="I606" t="n">
         <v>1</v>
@@ -44522,10 +43328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:21:23</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44392.8065162037</v>
       </c>
       <c r="I607" t="n">
         <v>1</v>
@@ -44602,10 +43406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:21:22</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44392.80650462963</v>
       </c>
       <c r="I608" t="n">
         <v>1</v>
@@ -44673,10 +43475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:21:15</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44392.80642361111</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -44740,10 +43540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:54</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44392.80618055556</v>
       </c>
       <c r="I610" t="n">
         <v>1</v>
@@ -44811,10 +43609,8 @@
           <t>4915885823</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:48</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44392.80611111111</v>
       </c>
       <c r="I611" t="n">
         <v>19</v>
@@ -44874,10 +43670,8 @@
           <t>4915890562</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:48</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44392.80611111111</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -44949,10 +43743,8 @@
           <t>4915823547</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:37</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44392.80598379629</v>
       </c>
       <c r="I613" t="n">
         <v>3</v>
@@ -45028,10 +43820,8 @@
           <t>4915823547</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:34</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44392.80594907407</v>
       </c>
       <c r="I614" t="n">
         <v>1</v>
@@ -45091,10 +43881,8 @@
           <t>4915868157</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:28</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44392.80587962963</v>
       </c>
       <c r="I615" t="n">
         <v>4</v>
@@ -45166,10 +43954,8 @@
           <t>4915879956</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:27</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44392.80586805556</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45241,10 +44027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:21</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44392.80579861111</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45308,10 +44092,8 @@
           <t>4915879674</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:20</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44392.80578703704</v>
       </c>
       <c r="I618" t="n">
         <v>11</v>
@@ -45387,10 +44169,8 @@
           <t>4915874006</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:07</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44392.80563657408</v>
       </c>
       <c r="I619" t="n">
         <v>1</v>
@@ -45458,10 +44238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:04</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44392.80560185185</v>
       </c>
       <c r="I620" t="n">
         <v>14</v>
@@ -45533,10 +44311,8 @@
           <t>4915878859</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:01</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44392.80556712963</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45608,10 +44384,8 @@
           <t>4915875198</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:19:58</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44392.80553240741</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45687,10 +44461,8 @@
           <t>4915878692</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:19:56</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44392.80550925926</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -45758,10 +44530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:19:48</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44392.80541666667</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -45825,10 +44595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:19:35</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44392.8052662037</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -45901,10 +44669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:19:29</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44392.80519675926</v>
       </c>
       <c r="I626" t="n">
         <v>1</v>
@@ -45981,10 +44747,8 @@
           <t>4915877416</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:19:25</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44392.80515046296</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46056,10 +44820,8 @@
           <t>4915872144</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:19:20</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44392.80509259259</v>
       </c>
       <c r="I628" t="n">
         <v>6</v>
@@ -46131,10 +44893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:19:14</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44392.80502314815</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46202,10 +44962,8 @@
           <t>4915869280</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:19:12</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44392.805</v>
       </c>
       <c r="I630" t="n">
         <v>1</v>
@@ -46277,10 +45035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:19:07</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44392.80494212963</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46344,10 +45100,8 @@
           <t>4915868513</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:54</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44392.80479166667</v>
       </c>
       <c r="I632" t="n">
         <v>2</v>
@@ -46419,10 +45173,8 @@
           <t>4915868277</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:48</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44392.80472222222</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46494,10 +45246,8 @@
           <t>4915868157</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:45</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44392.8046875</v>
       </c>
       <c r="I634" t="n">
         <v>11</v>
@@ -46561,10 +45311,8 @@
           <t>4915862518</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:41</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44392.8046412037</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46640,10 +45388,8 @@
           <t>4915867937</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:40</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44392.80462962963</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46711,10 +45457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:39</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44392.80461805555</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -46787,10 +45531,8 @@
           <t>4915875198</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:32</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44392.80453703704</v>
       </c>
       <c r="I638" t="n">
         <v>2</v>
@@ -46863,10 +45605,8 @@
           <t>4915865978</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:25</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44392.80445601852</v>
       </c>
       <c r="I639" t="n">
         <v>1</v>
@@ -46942,10 +45682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:18</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44392.804375</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47013,10 +45751,8 @@
           <t>4915859559</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:15</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44392.80434027778</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -47088,10 +45824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:13</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44392.80431712963</v>
       </c>
       <c r="I642" t="n">
         <v>1</v>
@@ -47163,10 +45897,8 @@
           <t>4915810416</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:05</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44392.80422453704</v>
       </c>
       <c r="I643" t="n">
         <v>1</v>
@@ -47230,10 +45962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:18:04</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44392.80421296296</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47305,10 +46035,8 @@
           <t>4915865978</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:54</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44392.80409722222</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47372,10 +46100,8 @@
           <t>4915858572</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:51</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44392.8040625</v>
       </c>
       <c r="I646" t="n">
         <v>2</v>
@@ -47451,10 +46177,8 @@
           <t>4915810416</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:44</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44392.80398148148</v>
       </c>
       <c r="I647" t="n">
         <v>3</v>
@@ -47518,10 +46242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:43</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44392.80396990741</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -47585,10 +46307,8 @@
           <t>4915862518</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:28</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44392.8037962963</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -47657,10 +46377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:25</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44392.80376157408</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -47724,10 +46442,8 @@
           <t>4915862238</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:21</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44392.80371527778</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -47795,10 +46511,8 @@
           <t>4915861713</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:09</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44392.80357638889</v>
       </c>
       <c r="I652" t="n">
         <v>6</v>
@@ -47866,10 +46580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:07</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44392.80355324074</v>
       </c>
       <c r="I653" t="n">
         <v>5</v>
@@ -47941,10 +46653,8 @@
           <t>4915853899</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:04</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44392.80351851852</v>
       </c>
       <c r="I654" t="n">
         <v>1</v>
@@ -48016,10 +46726,8 @@
           <t>4915815160</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:17:00</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44392.80347222222</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48091,10 +46799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:16:40</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44392.80324074074</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48158,10 +46864,8 @@
           <t>4915855651</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:16:36</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44392.80319444444</v>
       </c>
       <c r="I657" t="n">
         <v>1</v>
@@ -48225,10 +46929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:16:27</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44392.80309027778</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -48304,10 +47006,8 @@
           <t>4915855276</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:16:27</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44392.80309027778</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -48371,10 +47071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:16:23</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44392.80304398148</v>
       </c>
       <c r="I660" t="n">
         <v>2</v>
@@ -48434,10 +47132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:16:08</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44392.80287037037</v>
       </c>
       <c r="I661" t="n">
         <v>1</v>
@@ -48505,10 +47201,8 @@
           <t>4915851523</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:16:08</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44392.80287037037</v>
       </c>
       <c r="I662" t="n">
         <v>6</v>
@@ -48580,10 +47274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:16:02</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44392.80280092593</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -48651,10 +47343,8 @@
           <t>4915844119</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:15:59</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44392.80276620371</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -48718,10 +47408,8 @@
           <t>4915830663</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:15:55</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44392.80271990741</v>
       </c>
       <c r="I665" t="n">
         <v>4</v>
@@ -48793,10 +47481,8 @@
           <t>4915812791</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:15:43</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44392.80258101852</v>
       </c>
       <c r="I666" t="n">
         <v>3</v>
@@ -48868,10 +47554,8 @@
           <t>4915812791</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:15:39</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44392.80253472222</v>
       </c>
       <c r="I667" t="n">
         <v>1</v>
@@ -48943,10 +47627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:15:37</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44392.80251157407</v>
       </c>
       <c r="I668" t="n">
         <v>3</v>
@@ -49018,10 +47700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:15:37</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44392.80251157407</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49093,10 +47773,8 @@
           <t>4915839883</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:15:30</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44392.80243055556</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -49160,10 +47838,8 @@
           <t>4915839459</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:15:19</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44392.80230324074</v>
       </c>
       <c r="I671" t="n">
         <v>4</v>
@@ -49239,10 +47915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:15:03</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44392.80211805556</v>
       </c>
       <c r="I672" t="n">
         <v>6</v>
@@ -49310,10 +47984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:14:54</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44392.80201388889</v>
       </c>
       <c r="I673" t="n">
         <v>3</v>
@@ -49381,10 +48053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:14:53</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44392.80200231481</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -49456,10 +48126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:14:38</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44392.8018287037</v>
       </c>
       <c r="I675" t="n">
         <v>1</v>
@@ -49527,10 +48195,8 @@
           <t>4915837310</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:14:29</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44392.80172453704</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -49598,10 +48264,8 @@
           <t>4915834758</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:14:24</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44392.80166666667</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -49669,10 +48333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:14:09</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44392.80149305556</v>
       </c>
       <c r="I678" t="n">
         <v>4</v>
@@ -49736,10 +48398,8 @@
           <t>4915823854</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:14:04</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44392.80143518518</v>
       </c>
       <c r="I679" t="n">
         <v>1</v>
@@ -49815,10 +48475,8 @@
           <t>4915833320</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:13:51</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44392.80128472222</v>
       </c>
       <c r="I680" t="n">
         <v>1</v>
@@ -49896,10 +48554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:13:40</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44392.8011574074</v>
       </c>
       <c r="I681" t="n">
         <v>10</v>
@@ -49975,10 +48631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:13:24</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44392.80097222222</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -50038,10 +48692,8 @@
           <t>4915814258</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:13:19</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44392.80091435185</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
@@ -50117,10 +48769,8 @@
           <t>4915831734</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:13:12</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44392.80083333333</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -50189,10 +48839,8 @@
           <t>4915823854</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:13:08</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44392.80078703703</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -50256,10 +48904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:13:06</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44392.80076388889</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50335,10 +48981,8 @@
           <t>4915823547</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:13:01</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44392.80070601852</v>
       </c>
       <c r="I687" t="n">
         <v>40</v>
@@ -50410,10 +49054,8 @@
           <t>4915814258</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:56</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44392.80064814815</v>
       </c>
       <c r="I688" t="n">
         <v>2</v>
@@ -50478,10 +49120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:54</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44392.800625</v>
       </c>
       <c r="I689" t="n">
         <v>4</v>
@@ -50541,10 +49181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:52</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44392.80060185185</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -50608,10 +49246,8 @@
           <t>4915830663</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:47</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44392.80054398148</v>
       </c>
       <c r="I691" t="n">
         <v>9</v>
@@ -50684,10 +49320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:44</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44392.80050925926</v>
       </c>
       <c r="I692" t="n">
         <v>719</v>
@@ -50759,10 +49393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:43</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44392.80049768519</v>
       </c>
       <c r="I693" t="n">
         <v>7</v>
@@ -50822,10 +49454,8 @@
           <t>4915814258</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:41</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44392.80047453703</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -50893,10 +49523,8 @@
           <t>4915826157</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:38</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44392.80043981481</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
@@ -50972,10 +49600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:31</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44392.8003587963</v>
       </c>
       <c r="I696" t="n">
         <v>127</v>
@@ -51051,10 +49677,8 @@
           <t>4915819871</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:27</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44392.8003125</v>
       </c>
       <c r="I697" t="n">
         <v>1</v>
@@ -51126,10 +49750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:26</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44392.80030092593</v>
       </c>
       <c r="I698" t="n">
         <v>6</v>
@@ -51189,10 +49811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:24</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44392.80027777778</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -51256,10 +49876,8 @@
           <t>4915815160</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:13</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44392.80015046296</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51335,10 +49953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:10</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44392.80011574074</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
@@ -51406,10 +50022,8 @@
           <t>4915820463</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:51</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44392.79989583333</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
@@ -51481,10 +50095,8 @@
           <t>4915814258</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:50</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44392.79988425926</v>
       </c>
       <c r="I703" t="n">
         <v>3</v>
@@ -51552,10 +50164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:48</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44392.79986111111</v>
       </c>
       <c r="I704" t="n">
         <v>2</v>
@@ -51620,10 +50230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:42</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44392.79979166666</v>
       </c>
       <c r="I705" t="n">
         <v>4</v>
@@ -51699,10 +50307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:37</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44392.7997337963</v>
       </c>
       <c r="I706" t="n">
         <v>4</v>
@@ -51784,10 +50390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:35</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44392.79971064815</v>
       </c>
       <c r="I707" t="n">
         <v>6</v>
@@ -51863,10 +50467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:33</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44392.7996875</v>
       </c>
       <c r="I708" t="n">
         <v>2</v>
@@ -51930,10 +50532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:27</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44392.79961805556</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -52006,10 +50606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:22</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44392.79956018519</v>
       </c>
       <c r="I710" t="n">
         <v>13</v>
@@ -52085,10 +50683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:19</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44392.79952546296</v>
       </c>
       <c r="I711" t="n">
         <v>1</v>
@@ -52164,10 +50760,8 @@
           <t>4915810416</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:18</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44392.79951388889</v>
       </c>
       <c r="I712" t="n">
         <v>4</v>
@@ -52243,10 +50837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:17</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44392.79950231482</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
@@ -52310,10 +50902,8 @@
           <t>4915810416</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:16</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44392.79949074074</v>
       </c>
       <c r="I714" t="n">
         <v>22</v>
@@ -52377,10 +50967,8 @@
           <t>4915812791</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:13</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44392.79945601852</v>
       </c>
       <c r="I715" t="n">
         <v>2</v>
@@ -52444,10 +51032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:12</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44392.79944444444</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
@@ -52511,10 +51097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:12</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44392.79944444444</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
@@ -52583,10 +51167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:05</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44392.79936342593</v>
       </c>
       <c r="I718" t="n">
         <v>1</v>
@@ -52658,10 +51240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:11:04</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44392.79935185185</v>
       </c>
       <c r="I719" t="n">
         <v>1</v>
@@ -52737,10 +51317,8 @@
           <t>4915810416</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:58</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44392.79928240741</v>
       </c>
       <c r="I720" t="n">
         <v>12</v>
@@ -52808,10 +51386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:55</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44392.79924768519</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
@@ -52889,10 +51465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:53</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44392.79922453704</v>
       </c>
       <c r="I722" t="n">
         <v>278</v>
@@ -52956,10 +51530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:53</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44392.79922453704</v>
       </c>
       <c r="I723" t="n">
         <v>1</v>
@@ -53031,10 +51603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:46</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44392.79914351852</v>
       </c>
       <c r="I724" t="n">
         <v>1</v>
@@ -53098,10 +51668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:39</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44392.7990625</v>
       </c>
       <c r="I725" t="n">
         <v>1</v>
@@ -53169,10 +51737,8 @@
           <t>4915815160</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:36</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44392.79902777778</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
@@ -53244,10 +51810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:32</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44392.79898148148</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -53319,10 +51883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:30</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44392.79895833333</v>
       </c>
       <c r="I728" t="n">
         <v>53</v>
@@ -53391,10 +51953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:18</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44392.79881944445</v>
       </c>
       <c r="I729" t="n">
         <v>247</v>
@@ -53462,10 +52022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:17</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44392.79880787037</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -53541,10 +52099,8 @@
           <t>4915810416</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:12</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44392.79875</v>
       </c>
       <c r="I731" t="n">
         <v>36</v>
@@ -53616,10 +52172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:09</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44392.79871527778</v>
       </c>
       <c r="I732" t="n">
         <v>176</v>
@@ -53698,10 +52252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:06</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44392.79868055556</v>
       </c>
       <c r="I733" t="n">
         <v>400</v>
@@ -53777,10 +52329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:02</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44392.79863425926</v>
       </c>
       <c r="I734" t="n">
         <v>24</v>
@@ -53848,10 +52398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:10:00</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44392.79861111111</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
@@ -53923,10 +52471,8 @@
           <t>4915799875</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:58</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44392.79858796296</v>
       </c>
       <c r="I736" t="n">
         <v>6</v>
@@ -53995,10 +52541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:55</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44392.79855324074</v>
       </c>
       <c r="I737" t="n">
         <v>19</v>
@@ -54074,10 +52618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:49</t>
-        </is>
+      <c r="H738" s="1" t="n">
+        <v>44392.79848379629</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
@@ -54145,10 +52687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:49</t>
-        </is>
+      <c r="H739" s="1" t="n">
+        <v>44392.79848379629</v>
       </c>
       <c r="I739" t="n">
         <v>0</v>
@@ -54212,10 +52752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:43</t>
-        </is>
+      <c r="H740" s="1" t="n">
+        <v>44392.79841435186</v>
       </c>
       <c r="I740" t="n">
         <v>1</v>
@@ -54291,10 +52829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:42</t>
-        </is>
+      <c r="H741" s="1" t="n">
+        <v>44392.79840277778</v>
       </c>
       <c r="I741" t="n">
         <v>474</v>
@@ -54370,10 +52906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:40</t>
-        </is>
+      <c r="H742" s="1" t="n">
+        <v>44392.79837962963</v>
       </c>
       <c r="I742" t="n">
         <v>3</v>
@@ -54441,10 +52975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:38</t>
-        </is>
+      <c r="H743" s="1" t="n">
+        <v>44392.79835648148</v>
       </c>
       <c r="I743" t="n">
         <v>9</v>
@@ -54520,10 +53052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:37</t>
-        </is>
+      <c r="H744" s="1" t="n">
+        <v>44392.79834490741</v>
       </c>
       <c r="I744" t="n">
         <v>1</v>
@@ -54591,10 +53121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:37</t>
-        </is>
+      <c r="H745" s="1" t="n">
+        <v>44392.79834490741</v>
       </c>
       <c r="I745" t="n">
         <v>28</v>
@@ -54670,10 +53198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:36</t>
-        </is>
+      <c r="H746" s="1" t="n">
+        <v>44392.79833333333</v>
       </c>
       <c r="I746" t="n">
         <v>1</v>
@@ -54749,10 +53275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:32</t>
-        </is>
+      <c r="H747" s="1" t="n">
+        <v>44392.79828703704</v>
       </c>
       <c r="I747" t="n">
         <v>90</v>
@@ -54824,10 +53348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H748" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:31</t>
-        </is>
+      <c r="H748" s="1" t="n">
+        <v>44392.79827546296</v>
       </c>
       <c r="I748" t="n">
         <v>1</v>
@@ -54891,10 +53413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H749" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:31</t>
-        </is>
+      <c r="H749" s="1" t="n">
+        <v>44392.79827546296</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
@@ -54970,10 +53490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H750" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:27</t>
-        </is>
+      <c r="H750" s="1" t="n">
+        <v>44392.79822916666</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
@@ -55041,10 +53559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H751" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:09:26</t>
-        </is>
+      <c r="H751" s="1" t="n">
+        <v>44392.79821759259</v>
       </c>
       <c r="I751" t="n">
         <v>1</v>
